--- a/guesswords.xlsx
+++ b/guesswords.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Folders\Class\python_final_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01EA49DE-11D0-4E2B-B70C-345156CE65A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF6AFC7-446E-42D4-9820-E213AB6EFE25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3CDB3C1C-43D1-474F-A398-947C02B48C03}"/>
+    <workbookView xWindow="1428" yWindow="1428" windowWidth="17280" windowHeight="8880" xr2:uid="{3CDB3C1C-43D1-474F-A398-947C02B48C03}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>guessWord</t>
   </si>
@@ -75,10 +75,22 @@
     <t>ELEPHANT</t>
   </si>
   <si>
-    <t>LAMBORGINI</t>
-  </si>
-  <si>
     <t>A sports car</t>
+  </si>
+  <si>
+    <t>ADIDAS</t>
+  </si>
+  <si>
+    <t>LAMBORGHINI</t>
+  </si>
+  <si>
+    <t>A clothing company</t>
+  </si>
+  <si>
+    <t>CHRISTMAS</t>
+  </si>
+  <si>
+    <t>A festival</t>
   </si>
 </sst>
 </file>
@@ -430,7 +442,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF7A6A85-9375-4139-B91B-9D08565D9F23}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
@@ -516,10 +528,26 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
